--- a/MBD Problem Solver Input.xlsx
+++ b/MBD Problem Solver Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcorr\Documents\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcorr\Documents\GitHub\MBDS22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC8B684-625B-4924-8C3C-53A9A1E0B6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E79661-F522-4623-8991-C9A7DF786CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="432" yWindow="348" windowWidth="22608" windowHeight="8964" xr2:uid="{53A35785-85BA-4461-B078-85E0AEEDF635}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53A35785-85BA-4461-B078-85E0AEEDF635}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>*ALL COLUMNS MUST HAVE AT LEAST ONE VALUE, EVEN IF IT IS A 0, OR CODE WILL NOT WORK</t>
   </si>
   <si>
-    <t xml:space="preserve">magnitude of applied force (negative if </t>
-  </si>
-  <si>
     <t>Cross-Section Type</t>
   </si>
   <si>
@@ -176,7 +173,10 @@
 Second cell: Shear Modulus value</t>
   </si>
   <si>
-    <t>Rectangular</t>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>magnitude of applied force (negative if downwards)</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -431,6 +431,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1C39F5-2643-40B0-B373-4576C6FCD449}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,28 +805,28 @@
         <v>16</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="O1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>33</v>
-      </c>
       <c r="R1" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -836,22 +837,22 @@
         <v>18</v>
       </c>
       <c r="C2" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="20">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E2" s="19">
         <v>0</v>
       </c>
       <c r="F2" s="20">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G2" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H2" s="19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I2" s="22">
         <v>0</v>
@@ -860,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="M2" s="29">
-        <v>8</v>
+        <v>0.9</v>
       </c>
       <c r="N2" s="36">
-        <v>7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -890,20 +891,24 @@
         <v>19</v>
       </c>
       <c r="C3" s="10">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>-20</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.9</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10"/>
       <c r="L3" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" s="28">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="2">
@@ -917,7 +922,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="10"/>
@@ -928,7 +933,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10"/>
-      <c r="M4" s="25"/>
+      <c r="M4" s="37"/>
       <c r="O4" s="2"/>
       <c r="P4" s="28"/>
     </row>
@@ -974,7 +979,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
@@ -995,28 +1000,28 @@
         <v>4</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/MBD Problem Solver Input.xlsx
+++ b/MBD Problem Solver Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcorr\Documents\GitHub\MBDS22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E79661-F522-4623-8991-C9A7DF786CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BACAE1-DE24-4185-BB7D-80E1749E3A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53A35785-85BA-4461-B078-85E0AEEDF635}"/>
   </bookViews>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1C39F5-2643-40B0-B373-4576C6FCD449}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,7 +916,7 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="25">
-        <v>16</v>
+        <v>1.5</v>
       </c>
       <c r="R3" s="31">
         <v>20000</v>

--- a/MBD Problem Solver Input.xlsx
+++ b/MBD Problem Solver Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcorr\Documents\GitHub\MBDS22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BACAE1-DE24-4185-BB7D-80E1749E3A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F13E9-1803-420D-B9E7-C2A98F79EEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53A35785-85BA-4461-B078-85E0AEEDF635}"/>
   </bookViews>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1C39F5-2643-40B0-B373-4576C6FCD449}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,10 +837,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="20">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="E2" s="19">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>43</v>
       </c>
       <c r="L2" s="2">
-        <v>0.04</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="M2" s="29">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N2" s="36">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="P2" s="32">
         <v>0</v>
       </c>
       <c r="Q2" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="33">
         <v>10000</v>
@@ -891,13 +891,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="10">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="11">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E3" s="10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
@@ -908,15 +908,17 @@
         <v>0</v>
       </c>
       <c r="M3" s="28">
-        <v>0.04</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2"/>
+        <v>6.37</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
       <c r="Q3" s="25">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R3" s="31">
         <v>20000</v>
@@ -934,8 +936,12 @@
       <c r="I4" s="11"/>
       <c r="J4" s="10"/>
       <c r="M4" s="37"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="28"/>
+      <c r="O4" s="2">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="P4" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>

--- a/MBD Problem Solver Input.xlsx
+++ b/MBD Problem Solver Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcorr\Documents\GitHub\MBDS22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenr\Documents\GitHub\MBDS22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F13E9-1803-420D-B9E7-C2A98F79EEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F0D52-BEEF-436E-8BE7-584B7A4F9F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53A35785-85BA-4461-B078-85E0AEEDF635}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53A35785-85BA-4461-B078-85E0AEEDF635}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,14 +169,14 @@
 First cell: target distance from left end of beam</t>
   </si>
   <si>
-    <t>First cell: Young's Modulus value
-Second cell: Shear Modulus value</t>
-  </si>
-  <si>
     <t>Circular</t>
   </si>
   <si>
     <t>magnitude of applied force (negative if downwards)</t>
+  </si>
+  <si>
+    <t>First cell: Young's Modulus value, E
+Second cell: Shear Modulus value, G</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2">
-        <v>1.2500000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M2" s="29">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>3.18</v>
+        <v>50</v>
       </c>
       <c r="P2" s="32">
         <v>0</v>
       </c>
       <c r="Q2" s="29">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R2" s="33">
         <v>10000</v>
@@ -904,24 +904,19 @@
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10"/>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
+      <c r="L3" s="3"/>
       <c r="M3" s="28">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="2">
-        <v>6.37</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="25">
         <v>1</v>
       </c>
-      <c r="Q3" s="25">
-        <v>2</v>
-      </c>
       <c r="R3" s="31">
-        <v>20000</v>
+        <f>27*10^9</f>
+        <v>27000000000</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -936,12 +931,8 @@
       <c r="I4" s="11"/>
       <c r="J4" s="10"/>
       <c r="M4" s="37"/>
-      <c r="O4" s="2">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="P4" s="28">
-        <v>2</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -985,7 +976,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
@@ -1027,7 +1018,7 @@
         <v>38</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/MBD Problem Solver Input.xlsx
+++ b/MBD Problem Solver Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenr\Documents\GitHub\MBDS22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F0D52-BEEF-436E-8BE7-584B7A4F9F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C3CBB2-3F1C-4915-B302-3C0FC9D68B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53A35785-85BA-4461-B078-85E0AEEDF635}"/>
   </bookViews>
@@ -389,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -428,7 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -749,7 +748,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,7 +812,7 @@
       <c r="M1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="34" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="27" t="s">
@@ -822,7 +821,7 @@
       <c r="P1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="26" t="s">
         <v>32</v>
       </c>
       <c r="R1" s="30" t="s">
@@ -864,22 +863,22 @@
         <v>42</v>
       </c>
       <c r="L2" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="M2" s="29">
         <v>0</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="35">
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="P2" s="32">
         <v>0</v>
       </c>
       <c r="Q2" s="29">
-        <v>1.4999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="R2" s="33">
         <v>10000</v>
@@ -906,13 +905,13 @@
       <c r="J3" s="10"/>
       <c r="L3" s="3"/>
       <c r="M3" s="28">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="25">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="R3" s="31">
         <f>27*10^9</f>
@@ -930,7 +929,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10"/>
-      <c r="M4" s="37"/>
+      <c r="M4" s="36"/>
       <c r="O4" s="2"/>
       <c r="P4" s="28"/>
     </row>

--- a/MBD Problem Solver Input.xlsx
+++ b/MBD Problem Solver Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenr\Documents\GitHub\MBDS22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C3CBB2-3F1C-4915-B302-3C0FC9D68B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846B724F-8E73-4366-9DF6-58320BF552B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53A35785-85BA-4461-B078-85E0AEEDF635}"/>
   </bookViews>
@@ -748,7 +748,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MBD Problem Solver Input.xlsx
+++ b/MBD Problem Solver Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcorr\Documents\GitHub\MBDS22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenr\Documents\GitHub\MBDS22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F13E9-1803-420D-B9E7-C2A98F79EEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A81D8E-C21B-433B-A90B-7718C932933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53A35785-85BA-4461-B078-85E0AEEDF635}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53A35785-85BA-4461-B078-85E0AEEDF635}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,14 +169,14 @@
 First cell: target distance from left end of beam</t>
   </si>
   <si>
-    <t>First cell: Young's Modulus value
-Second cell: Shear Modulus value</t>
-  </si>
-  <si>
     <t>Circular</t>
   </si>
   <si>
     <t>magnitude of applied force (negative if downwards)</t>
+  </si>
+  <si>
+    <t>First cell: Young's Modulus value, E
+Second cell: Shear Modulus value, G</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -428,7 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -749,7 +748,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,7 +812,7 @@
       <c r="M1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="34" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="27" t="s">
@@ -822,7 +821,7 @@
       <c r="P1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="26" t="s">
         <v>32</v>
       </c>
       <c r="R1" s="30" t="s">
@@ -861,25 +860,25 @@
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2">
-        <v>1.2500000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="M2" s="29">
         <v>0</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="35">
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>3.18</v>
+        <v>300</v>
       </c>
       <c r="P2" s="32">
         <v>0</v>
       </c>
       <c r="Q2" s="29">
-        <v>1</v>
+        <v>2.4E-2</v>
       </c>
       <c r="R2" s="33">
         <v>10000</v>
@@ -904,24 +903,19 @@
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10"/>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
+      <c r="L3" s="3"/>
       <c r="M3" s="28">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="2">
-        <v>6.37</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
       <c r="Q3" s="25">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="R3" s="31">
-        <v>20000</v>
+        <f>27*10^9</f>
+        <v>27000000000</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -935,13 +929,9 @@
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10"/>
-      <c r="M4" s="37"/>
-      <c r="O4" s="2">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="P4" s="28">
-        <v>2</v>
-      </c>
+      <c r="M4" s="36"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -985,7 +975,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
@@ -1027,7 +1017,7 @@
         <v>38</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
